--- a/hw/封装.xlsx
+++ b/hw/封装.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3375" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>TPS62120</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,23 @@
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?spm=a230r.1.14.206.3bc625e1tFNrND&amp;id=562281832240&amp;ns=1&amp;abbucket=5#detail</t>
+  </si>
+  <si>
+    <t>Y1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.78.333e2f06EGSvUy&amp;id=41227806820&amp;ns=1&amp;abbucket=5</t>
+  </si>
+  <si>
+    <t>Y2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=41210007886&amp;ali_refid=a3_430583_1006:1109983619:N:32.768K%E6%99%B6%E6%8C%AF:ac1014ddc1dd46b9b708a7d24ab16cba&amp;ali_trackid=1_ac1014ddc1dd46b9b708a7d24ab16cba&amp;spm=a230r.1.14.3</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.154.1f6f5516PwupdY&amp;id=558453465972&amp;ns=1&amp;abbucket=5#detail</t>
   </si>
 </sst>
 </file>
@@ -423,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -454,6 +471,9 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -508,6 +528,22 @@
       </c>
       <c r="C11" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/hw/封装.xlsx
+++ b/hw/封装.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4500" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>TPS62120</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,7 +104,23 @@
     <t>https://detail.tmall.com/item.htm?id=41210007886&amp;ali_refid=a3_430583_1006:1109983619:N:32.768K%E6%99%B6%E6%8C%AF:ac1014ddc1dd46b9b708a7d24ab16cba&amp;ali_trackid=1_ac1014ddc1dd46b9b708a7d24ab16cba&amp;spm=a230r.1.14.3</t>
   </si>
   <si>
+    <t>CN1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=525433574500&amp;ali_refid=a3_430583_1006:1109952213:N:SIM%E5%8D%A1%E5%BA%A7:5f689d0bdf612e2c1013e16178925b34&amp;ali_trackid=1_5f689d0bdf612e2c1013e16178925b34&amp;spm=a230r.1.14.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://item.taobao.com/item.htm?spm=a230r.1.14.154.1f6f5516PwupdY&amp;id=558453465972&amp;ns=1&amp;abbucket=5#detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.1.268027e2Q90gbB&amp;id=41364776539&amp;ns=1&amp;abbucket=5#detail</t>
+  </si>
+  <si>
+    <t>gu906</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -440,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -471,8 +487,8 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -544,14 +560,32 @@
       </c>
       <c r="C13" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="C14" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3" location="detail"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>